--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="223" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F335ABB5-0B3A-4F4C-B38E-7262B45B6CF5}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{D597E1DC-C3AE-4E36-82B3-415CC5C2C05B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN"}]}</t>
-  </si>
-  <si>
     <t>Gradient</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>{ "icon": "curve-resampling-16x16", "transform": true, "function": "curveResampling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_RESAMPLED" } ],"allowZone":false, "parameters": [ { "name": "Mode", "type": "select", "choices": ["Linear Interpolate", "Depth Shift (core)", "Block (core)"], "value": "Linear Interpolate" } ] }</t>
+  </si>
+  <si>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]}</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -532,9 +532,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,17 +817,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,9 +838,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -862,21 +861,21 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="100.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -886,7 +885,7 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -896,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -906,11 +905,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -920,11 +919,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -934,11 +933,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -948,11 +947,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -962,11 +961,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -976,11 +975,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -990,11 +989,11 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1004,11 +1003,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1018,11 +1017,11 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1032,11 +1031,11 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1046,11 +1045,11 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1060,11 +1059,11 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1074,11 +1073,11 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1088,11 +1087,11 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1102,11 +1101,11 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1116,11 +1115,11 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1130,11 +1129,11 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1144,11 +1143,11 @@
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1158,11 +1157,11 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1172,11 +1171,11 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1186,11 +1185,11 @@
       <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1200,11 +1199,11 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1214,11 +1213,11 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1228,11 +1227,11 @@
       <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1242,11 +1241,11 @@
       <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1256,11 +1255,11 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1270,556 +1269,556 @@
       <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
         <v>114</v>
       </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
         <v>118</v>
       </c>
-      <c r="C52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
         <v>120</v>
       </c>
-      <c r="C53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
         <v>126</v>
       </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
         <v>132</v>
       </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
         <v>134</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
         <v>137</v>
       </c>
-      <c r="C61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
         <v>139</v>
       </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
         <v>143</v>
       </c>
-      <c r="C64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
         <v>145</v>
       </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
         <v>147</v>
       </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
         <v>149</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
